--- a/comparison/3d-2side-dynamic-elastic.xlsx
+++ b/comparison/3d-2side-dynamic-elastic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="647" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="disp-1-x" sheetId="1" r:id="rId1"/>
@@ -180,6 +180,49 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="1">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR">
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>جابه جایی گره</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" baseline="0">
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t> 1 در جهت </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>x</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -192,7 +235,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="1">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -927,11 +970,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336952784"/>
-        <c:axId val="336955920"/>
+        <c:axId val="330529952"/>
+        <c:axId val="330530344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336952784"/>
+        <c:axId val="330529952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,12 +1031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336955920"/>
+        <c:crossAx val="330530344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336955920"/>
+        <c:axId val="330530344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336952784"/>
+        <c:crossAx val="330529952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1064,6 +1107,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1145,6 +1189,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>جابه جایی گره 3 در جهت </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+              </a:rPr>
+              <a:t>y</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+              <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1893,13 +1976,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336949256"/>
-        <c:axId val="336950040"/>
+        <c:axId val="330534624"/>
+        <c:axId val="330535408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336949256"/>
+        <c:axId val="330534624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1917,6 +2001,79 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr rtl="1">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fa-IR">
+                    <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  </a:rPr>
+                  <a:t>زمان (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  </a:rPr>
+                  <a:t>s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fa-IR">
+                    <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="1">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1954,12 +2111,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336950040"/>
+        <c:crossAx val="330535408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336950040"/>
+        <c:axId val="330535408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,6 +2136,85 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr rtl="1">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fa-IR">
+                    <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  </a:rPr>
+                  <a:t>جابه</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fa-IR" baseline="0">
+                    <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  </a:rPr>
+                  <a:t> جایی (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fa-IR" baseline="0">
+                    <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="1">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="B Nazanin" panose="00000400000000000000" pitchFamily="2" charset="-78"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2016,7 +2252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336949256"/>
+        <c:crossAx val="330534624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2029,7 +2265,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2860,11 +3096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379783200"/>
-        <c:axId val="379781632"/>
+        <c:axId val="330535800"/>
+        <c:axId val="330536192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="379783200"/>
+        <c:axId val="330535800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,12 +3157,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379781632"/>
+        <c:crossAx val="330536192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="379781632"/>
+        <c:axId val="330536192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +3219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379783200"/>
+        <c:crossAx val="330535800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3827,11 +4063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378148496"/>
-        <c:axId val="378148104"/>
+        <c:axId val="330536976"/>
+        <c:axId val="330539720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378148496"/>
+        <c:axId val="330536976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,12 +4124,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378148104"/>
+        <c:crossAx val="330539720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378148104"/>
+        <c:axId val="330539720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3950,7 +4186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378148496"/>
+        <c:crossAx val="330536976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4794,11 +5030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378142616"/>
-        <c:axId val="378139872"/>
+        <c:axId val="330538544"/>
+        <c:axId val="330538936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378142616"/>
+        <c:axId val="330538544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,12 +5091,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378139872"/>
+        <c:crossAx val="330538936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378139872"/>
+        <c:axId val="330538936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4917,7 +5153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378142616"/>
+        <c:crossAx val="330538544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5761,11 +5997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378141440"/>
-        <c:axId val="378132816"/>
+        <c:axId val="328093544"/>
+        <c:axId val="328091192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378141440"/>
+        <c:axId val="328093544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5822,12 +6058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378132816"/>
+        <c:crossAx val="328091192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378132816"/>
+        <c:axId val="328091192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5884,7 +6120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378141440"/>
+        <c:crossAx val="328093544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9785,7 +10021,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10377,7 +10613,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11018,8 +11254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12302,7 +12538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
